--- a/Requisitos Funcionais.xlsx
+++ b/Requisitos Funcionais.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bley\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tábata Cunha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7C7E8-324D-4CED-AE15-8FAE8B424EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -134,9 +135,6 @@
     <t>Este requisito permite ao usuário agendar a liberação de alimento</t>
   </si>
   <si>
-    <t>Este requisito permite a inclusão, alteração e exclusão de usuários.</t>
-  </si>
-  <si>
     <t>Gerenciar equipamentos</t>
   </si>
   <si>
@@ -179,15 +177,6 @@
     <t>Este requisito deve notificar o veterinário e enviar um relatório caso haja alterações na alimentação do animal</t>
   </si>
   <si>
-    <t>Gerenciar Estoque de ração</t>
-  </si>
-  <si>
-    <t>Este requisito permite a inclusão, alteração, exclusão e consulta da quantidade disponível do estoque de ração.</t>
-  </si>
-  <si>
-    <t>baixa</t>
-  </si>
-  <si>
     <t>Gerenciar notificações</t>
   </si>
   <si>
@@ -218,21 +207,12 @@
     <t>Este requisito deve notificar o usuário o estado da ração, do animal e dosador</t>
   </si>
   <si>
-    <t>Este requisito deve gerenciar o envio e recebimento de informaçoes e comandos entre servidor, dosador e assistente inteligente</t>
-  </si>
-  <si>
-    <t>Gerenciar comando de voz</t>
-  </si>
-  <si>
     <t>RF17</t>
   </si>
   <si>
     <t>RF18</t>
   </si>
   <si>
-    <t>RF19</t>
-  </si>
-  <si>
     <t>Enviar dados equipamento</t>
   </si>
   <si>
@@ -240,13 +220,22 @@
   </si>
   <si>
     <t>Gerenciar veterinário</t>
+  </si>
+  <si>
+    <t>Este requisito permite a consulta, alteração e exclusão de usuários.</t>
+  </si>
+  <si>
+    <t>Criar usuário com Dosador</t>
+  </si>
+  <si>
+    <t>Usuário só deve ser criado caso tenha um código de alimentador válido.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -320,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -405,17 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -443,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,8 +426,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -470,34 +441,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -761,7 +722,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
@@ -778,14 +739,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A9:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A9:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A9:E27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A9:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" name="Nome" dataDxfId="3"/>
-    <tableColumn id="3" name="Descrição" dataDxfId="2"/>
-    <tableColumn id="4" name="Prioridade (Alta, Média, Baixa)" dataDxfId="1"/>
-    <tableColumn id="5" name="Categoria (Solicitação, Processo)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descrição" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prioridade (Alta, Média, Baixa)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Categoria (Solicitação, Processo)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,12 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,20 +1086,12 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>44664</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -1165,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1174,35 +1127,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>28</v>
+      <c r="B11" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -1212,14 +1161,14 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>31</v>
+      <c r="B13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -1230,13 +1179,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -1246,11 +1195,11 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>44</v>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -1264,10 +1213,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1280,82 +1229,82 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>32</v>
+      <c r="B17" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>34</v>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="32" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="26" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>71</v>
+      <c r="B21" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -1366,44 +1315,44 @@
         <v>25</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -1412,85 +1361,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="70.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="9" t="s">
+    <row r="25" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>14</v>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="B27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A27" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>12</v>
-      </c>
+    <row r="28" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
@@ -1648,15 +1587,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1666,18 +1598,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1825,18 +1757,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Requisitos Funcionais.xlsx
+++ b/Requisitos Funcionais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tábata Cunha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0030482013001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7C7E8-324D-4CED-AE15-8FAE8B424EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DFBA24-BEBA-48FF-A602-2BF2BD44DCA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
-  </si>
-  <si>
-    <t>GRUPO:</t>
-  </si>
-  <si>
-    <t>DATA:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Código</t>
   </si>
@@ -105,9 +96,6 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>Capivara Empacada</t>
-  </si>
-  <si>
     <t>Fazer Login</t>
   </si>
   <si>
@@ -229,13 +217,22 @@
   </si>
   <si>
     <t>Usuário só deve ser criado caso tenha um código de alimentador válido.</t>
+  </si>
+  <si>
+    <t>Confirmar e-mail</t>
+  </si>
+  <si>
+    <t>Usuário deve confirmar e-mail após a criação da conta.</t>
+  </si>
+  <si>
+    <t>RF19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,32 +241,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,51 +386,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -739,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A9:E27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A9:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="3"/>
@@ -1050,545 +1013,534 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
-        <v>44664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="21" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
+    </row>
+    <row r="15" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>55</v>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="26" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="C20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1598,18 +1550,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,18 +1709,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6a6142b7-8324-4fea-855d-77c42805df5a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Requisitos Funcionais.xlsx
+++ b/Requisitos Funcionais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0030482013001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A89F762-FC78-47E3-A9EE-40F13D29F842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222045F-CE2A-4646-AB54-CA7E0BD28E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C9F39FE0-4600-477B-943F-80E01BB6670B}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{C9F39FE0-4600-477B-943F-80E01BB6670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Código</t>
   </si>
@@ -60,9 +60,6 @@
     <t>RF02</t>
   </si>
   <si>
-    <t>Criar usuário com Dosador</t>
-  </si>
-  <si>
     <t>Usuário só deve ser criado caso tenha um código de alimentador válido.</t>
   </si>
   <si>
@@ -90,18 +87,9 @@
     <t>RF05</t>
   </si>
   <si>
-    <t>Confirmar e-mail</t>
-  </si>
-  <si>
-    <t>Usuário deve confirmar e-mail após a criação da conta.</t>
-  </si>
-  <si>
     <t>RF06</t>
   </si>
   <si>
-    <t>Gerenciar Pet</t>
-  </si>
-  <si>
     <t>Este requisito permite ao usuário incluir, alterar, excluir e consultar o(s) Pet(s).</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
     <t>RF07</t>
   </si>
   <si>
-    <t>Gerenciar equipamentos</t>
-  </si>
-  <si>
-    <t>Este requisito permite ao usuário incluir, alterar, excluir e consultar o(s) equipamento(s) vinculado(s).</t>
-  </si>
-  <si>
     <t>RF08</t>
   </si>
   <si>
@@ -138,21 +120,9 @@
     <t>RF10</t>
   </si>
   <si>
-    <t>Mostrar Gráfico Alimentação</t>
-  </si>
-  <si>
-    <t>Este requisito permite demonstrar um gráfico do histórico de alimentação</t>
-  </si>
-  <si>
     <t>RF11</t>
   </si>
   <si>
-    <t>Liberar Alimentação</t>
-  </si>
-  <si>
-    <t>Este requisito permite acionar a liberação de alimento</t>
-  </si>
-  <si>
     <t>RF12</t>
   </si>
   <si>
@@ -168,12 +138,6 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>Gerenciar Usuário</t>
-  </si>
-  <si>
-    <t>Este requisito permite a consulta, alteração e exclusão de usuários.</t>
-  </si>
-  <si>
     <t>RF14</t>
   </si>
   <si>
@@ -192,32 +156,71 @@
     <t>RF17</t>
   </si>
   <si>
-    <t>Informar novo dispositivo</t>
-  </si>
-  <si>
-    <t>Este requisito deve informar que foi feito login em um novo despositivo não reconhecido</t>
-  </si>
-  <si>
-    <t>Enviar dados equipamento</t>
-  </si>
-  <si>
-    <t>Este requisito deve realizar o envio em tempo real das informações do dosador ao banco de dados.</t>
-  </si>
-  <si>
     <t>Notificar usuário</t>
   </si>
   <si>
-    <t>Este requisito deve notificar o usuário o estado da ração, do animal e dosador</t>
+    <t>Criar conta</t>
+  </si>
+  <si>
+    <t>Editar perfil</t>
+  </si>
+  <si>
+    <t>Usuário deve poder alterar informações pessoas de sua conta</t>
+  </si>
+  <si>
+    <t>Gerenciar Dosador</t>
+  </si>
+  <si>
+    <t>Este requisito permite demonstrar um gráfico do histórico de alimentação semanal com menos detalhes</t>
+  </si>
+  <si>
+    <t>Este requisito permite demonstrar um gráfico do histórico de alimentação diário com mais detalhes</t>
+  </si>
+  <si>
+    <t>Enviar peso atual do dosador</t>
+  </si>
+  <si>
+    <t>Este requisito deve realizar o envio das informações do dosador ao banco de dados.</t>
+  </si>
+  <si>
+    <t>Este requisito deve notificar o usuário sobre se o dosador está conectado ou se o pet não se alimentou no dia.</t>
+  </si>
+  <si>
+    <t>Liberar Alimentação por agendamento</t>
+  </si>
+  <si>
+    <t>Este requisito permite acionar a liberação de alimento a partir dos dados do agendamento</t>
+  </si>
+  <si>
+    <t>Liberar Alimentação manualmente</t>
+  </si>
+  <si>
+    <t>Requisito permite que ração seja liberada no momento.</t>
+  </si>
+  <si>
+    <t>Gerar relatório de Alimentação</t>
+  </si>
+  <si>
+    <t>Gerar PDF com dados do histórico e gráfico.</t>
+  </si>
+  <si>
+    <t>Mostrar Gráfico de Alimentação Diário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,20 +564,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7818552-A3FC-4C71-94F3-4E1BCC11E02B}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -608,15 +611,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -625,15 +628,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -642,66 +645,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -710,15 +713,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -727,160 +730,155 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Requisitos Funcionais.xlsx
+++ b/Requisitos Funcionais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bley\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0030482013001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222045F-CE2A-4646-AB54-CA7E0BD28E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAACD05-67D6-4BB8-B65B-38CF16D5C7EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{C9F39FE0-4600-477B-943F-80E01BB6670B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C9F39FE0-4600-477B-943F-80E01BB6670B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Código</t>
   </si>
@@ -102,12 +102,6 @@
     <t>RF08</t>
   </si>
   <si>
-    <t>Gerar Relatório de Alimentação</t>
-  </si>
-  <si>
-    <t>Este requisito permite a geração de relatório(s) da frequência de alimentação do(s) Pet(s).</t>
-  </si>
-  <si>
     <t>RF09</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
   </si>
   <si>
     <t>Este requisito permite ao usuário definir qual(is) as notificações automáticas encaminhadas pelo sistema.</t>
-  </si>
-  <si>
-    <t>RF17</t>
   </si>
   <si>
     <t>Notificar usuário</t>
@@ -266,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,22 +553,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7818552-A3FC-4C71-94F3-4E1BCC11E02B}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -611,12 +602,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -628,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -645,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -662,15 +653,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -679,12 +670,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -696,15 +687,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -713,32 +704,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -747,134 +738,117 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
